--- a/src/Prueba.xlsx
+++ b/src/Prueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLAKABOY\Desktop\decision-tree\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BD94B9-6442-4B1D-864B-DB611BD1EFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3715C7B4-8C17-4A55-85CB-847259556A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5025" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="3">
   <si>
     <t>&gt; 32</t>
   </si>
@@ -35,25 +35,21 @@
   <si>
     <t>&lt; 25</t>
   </si>
-  <si>
-    <t>Dato 1</t>
-  </si>
-  <si>
-    <t>Dato 2</t>
-  </si>
-  <si>
-    <t>Dato 3</t>
-  </si>
-  <si>
-    <t>Dato 4</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -81,8 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,29 +360,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -399,7 +394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -413,7 +408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -427,7 +422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -441,7 +436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -455,7 +450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -469,7 +464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -483,7 +478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -497,7 +492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -510,8 +505,9 @@
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -525,7 +521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -539,7 +535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -553,7 +549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -567,7 +563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
